--- a/simulation_data/iterative_algorithm/i_error_level_3_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_3_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.21253201077897</v>
+        <v>89.93405798397552</v>
       </c>
       <c r="D2" t="n">
-        <v>4.772561420676254</v>
+        <v>3.871902961706581</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.89179742738717</v>
+        <v>89.47406936296944</v>
       </c>
       <c r="D3" t="n">
-        <v>4.184834745354601</v>
+        <v>3.830217563988994</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.36827968705033</v>
+        <v>87.22245267706971</v>
       </c>
       <c r="D4" t="n">
-        <v>4.39634445547525</v>
+        <v>4.380223831978103</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.04356473138198</v>
+        <v>87.04486838889126</v>
       </c>
       <c r="D5" t="n">
-        <v>4.284915590379414</v>
+        <v>4.367729490011821</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.83229758592884</v>
+        <v>86.5456593425462</v>
       </c>
       <c r="D6" t="n">
-        <v>4.553506249330046</v>
+        <v>4.222059632060509</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.14360793469166</v>
+        <v>85.0211607465648</v>
       </c>
       <c r="D7" t="n">
-        <v>4.546933972129228</v>
+        <v>4.378708495958415</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.52680882501927</v>
+        <v>84.35626213724349</v>
       </c>
       <c r="D8" t="n">
-        <v>3.6863209671273</v>
+        <v>4.388083194363416</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.37355407237997</v>
+        <v>81.89280025081825</v>
       </c>
       <c r="D9" t="n">
-        <v>4.486974433577418</v>
+        <v>4.392089631386961</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.24664022913339</v>
+        <v>81.96951806595139</v>
       </c>
       <c r="D10" t="n">
-        <v>4.174522934889798</v>
+        <v>4.299786291988662</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.54418841023453</v>
+        <v>80.66423098539556</v>
       </c>
       <c r="D11" t="n">
-        <v>4.507203073797968</v>
+        <v>4.584907664766391</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.68934556418762</v>
+        <v>80.6345455772524</v>
       </c>
       <c r="D12" t="n">
-        <v>4.679908315145121</v>
+        <v>4.234341080189613</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.98286075243296</v>
+        <v>78.99722798066372</v>
       </c>
       <c r="D13" t="n">
-        <v>4.795792267593952</v>
+        <v>3.980611368424553</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.3419436664628</v>
+        <v>78.6854610575551</v>
       </c>
       <c r="D14" t="n">
-        <v>4.427970980501222</v>
+        <v>4.166052469928698</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.82782301230559</v>
+        <v>76.5123137791623</v>
       </c>
       <c r="D15" t="n">
-        <v>4.213867475773667</v>
+        <v>4.057031105004666</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.10908101536421</v>
+        <v>76.25500561874362</v>
       </c>
       <c r="D16" t="n">
-        <v>4.410590879324801</v>
+        <v>4.171939958825818</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.47807094014006</v>
+        <v>75.14064504549189</v>
       </c>
       <c r="D17" t="n">
-        <v>4.855184028765557</v>
+        <v>3.72251830511122</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.11854157244012</v>
+        <v>74.9038486867026</v>
       </c>
       <c r="D18" t="n">
-        <v>4.562272052025422</v>
+        <v>4.27434252584401</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.68638538403181</v>
+        <v>71.92641398241378</v>
       </c>
       <c r="D19" t="n">
-        <v>4.793731326393245</v>
+        <v>4.683337238780652</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.95805927566514</v>
+        <v>72.72097256742423</v>
       </c>
       <c r="D20" t="n">
-        <v>4.089740495951154</v>
+        <v>4.287449250093712</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.45953048403368</v>
+        <v>71.03889500076919</v>
       </c>
       <c r="D21" t="n">
-        <v>4.527027786893638</v>
+        <v>3.79319804519971</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.05155551893425</v>
+        <v>70.37347652142151</v>
       </c>
       <c r="D22" t="n">
-        <v>4.592729977864082</v>
+        <v>4.215682723474461</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.66918228249234</v>
+        <v>68.76829629848075</v>
       </c>
       <c r="D23" t="n">
-        <v>4.932892043807572</v>
+        <v>4.193024772991166</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.41645183896421</v>
+        <v>68.13972219252048</v>
       </c>
       <c r="D24" t="n">
-        <v>4.095682567154447</v>
+        <v>3.620833694334804</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.36359695719614</v>
+        <v>67.70564330593095</v>
       </c>
       <c r="D25" t="n">
-        <v>4.585260883866593</v>
+        <v>4.362134679891804</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.32085703064789</v>
+        <v>65.71883947606561</v>
       </c>
       <c r="D26" t="n">
-        <v>4.239795848643152</v>
+        <v>4.675612449849301</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.31284812463431</v>
+        <v>64.7323737771771</v>
       </c>
       <c r="D27" t="n">
-        <v>4.541479581517473</v>
+        <v>4.16450335478276</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.7811038321309</v>
+        <v>63.64766344529965</v>
       </c>
       <c r="D28" t="n">
-        <v>4.613264843589608</v>
+        <v>4.400350754061106</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.04454783445937</v>
+        <v>63.00692690507007</v>
       </c>
       <c r="D29" t="n">
-        <v>4.333018824026865</v>
+        <v>4.376302615986543</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.91150398451772</v>
+        <v>61.91889833004084</v>
       </c>
       <c r="D30" t="n">
-        <v>4.017376636799663</v>
+        <v>4.158821395325976</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.12146345014772</v>
+        <v>60.98207300184681</v>
       </c>
       <c r="D31" t="n">
-        <v>4.150235843619623</v>
+        <v>4.669031504378776</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.94628443577459</v>
+        <v>59.81340244826924</v>
       </c>
       <c r="D32" t="n">
-        <v>3.949890010616908</v>
+        <v>4.231669788542918</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.40046237161275</v>
+        <v>59.326983701348</v>
       </c>
       <c r="D33" t="n">
-        <v>4.44304270611881</v>
+        <v>4.194330880590639</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.1471838749472</v>
+        <v>57.8141600455024</v>
       </c>
       <c r="D34" t="n">
-        <v>4.32757422625749</v>
+        <v>4.637461520341958</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.96665876513512</v>
+        <v>56.29237164013011</v>
       </c>
       <c r="D35" t="n">
-        <v>4.133043071465015</v>
+        <v>3.937644109897526</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.88938382671532</v>
+        <v>56.51984389154736</v>
       </c>
       <c r="D36" t="n">
-        <v>4.299571869239848</v>
+        <v>4.540601288631509</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.54397117108282</v>
+        <v>55.24560754507658</v>
       </c>
       <c r="D37" t="n">
-        <v>4.208436215090125</v>
+        <v>4.450143423244332</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.13125326291244</v>
+        <v>53.64227471252745</v>
       </c>
       <c r="D38" t="n">
-        <v>3.995360578137639</v>
+        <v>4.103112894679875</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.85726011189738</v>
+        <v>52.8419255378903</v>
       </c>
       <c r="D39" t="n">
-        <v>3.851110998994315</v>
+        <v>3.640273370749971</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.29272304930795</v>
+        <v>51.99521607606597</v>
       </c>
       <c r="D40" t="n">
-        <v>5.14171450123528</v>
+        <v>3.972171436516605</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.6331337546405</v>
+        <v>51.31796431736056</v>
       </c>
       <c r="D41" t="n">
-        <v>4.223708808894993</v>
+        <v>4.1996777781224</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.71075336394282</v>
+        <v>50.51990740528984</v>
       </c>
       <c r="D42" t="n">
-        <v>4.657499777101375</v>
+        <v>4.760509641395196</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.71856870221808</v>
+        <v>48.62249193875671</v>
       </c>
       <c r="D43" t="n">
-        <v>4.498745562657732</v>
+        <v>4.19926867563152</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.67705910541804</v>
+        <v>47.96070268586446</v>
       </c>
       <c r="D44" t="n">
-        <v>4.258078936272978</v>
+        <v>4.963401446828644</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.83895729068792</v>
+        <v>47.33016817886362</v>
       </c>
       <c r="D45" t="n">
-        <v>4.414960497058601</v>
+        <v>4.854053829807701</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.67549771314785</v>
+        <v>46.23226242428547</v>
       </c>
       <c r="D46" t="n">
-        <v>4.238854817488511</v>
+        <v>4.39405434915284</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.24369621567874</v>
+        <v>45.22958085942317</v>
       </c>
       <c r="D47" t="n">
-        <v>3.793109919679033</v>
+        <v>4.447875214364831</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.08882745167849</v>
+        <v>43.21540989250057</v>
       </c>
       <c r="D48" t="n">
-        <v>4.655939815257554</v>
+        <v>4.272948692991086</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.81351894551172</v>
+        <v>43.33078336575318</v>
       </c>
       <c r="D49" t="n">
-        <v>4.840642574496914</v>
+        <v>4.37358069192517</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.59853410572423</v>
+        <v>41.54890373344129</v>
       </c>
       <c r="D50" t="n">
-        <v>4.679485959528052</v>
+        <v>4.454540054161666</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.99671514143331</v>
+        <v>41.01903354395263</v>
       </c>
       <c r="D51" t="n">
-        <v>4.609965523130045</v>
+        <v>4.134507598232624</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.3181725110049</v>
+        <v>39.85379001830304</v>
       </c>
       <c r="D52" t="n">
-        <v>4.432899486831294</v>
+        <v>3.909820822024373</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.1649106061072</v>
+        <v>40.17130111062624</v>
       </c>
       <c r="D53" t="n">
-        <v>4.447817301246056</v>
+        <v>4.190490581330285</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.17618777658517</v>
+        <v>37.98099148850283</v>
       </c>
       <c r="D54" t="n">
-        <v>5.235611928437727</v>
+        <v>4.417830512100964</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.40634459592831</v>
+        <v>37.64129163903492</v>
       </c>
       <c r="D55" t="n">
-        <v>4.924588554717735</v>
+        <v>4.028081280231229</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.41125071539618</v>
+        <v>35.96292434439337</v>
       </c>
       <c r="D56" t="n">
-        <v>4.418650174204815</v>
+        <v>4.330018271011213</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.10428320778565</v>
+        <v>34.22052533225634</v>
       </c>
       <c r="D57" t="n">
-        <v>4.150275704457116</v>
+        <v>4.61824477518676</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.96724392792037</v>
+        <v>34.07718625896284</v>
       </c>
       <c r="D58" t="n">
-        <v>4.594229817021903</v>
+        <v>4.373774676618882</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.73638821616672</v>
+        <v>32.06272797177881</v>
       </c>
       <c r="D59" t="n">
-        <v>5.025435295886738</v>
+        <v>4.527278825867893</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.96032108737818</v>
+        <v>32.49730462178007</v>
       </c>
       <c r="D60" t="n">
-        <v>4.709761306231342</v>
+        <v>4.504168910887157</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.82920510106435</v>
+        <v>31.88918734784409</v>
       </c>
       <c r="D61" t="n">
-        <v>3.870393202072231</v>
+        <v>4.131601647237536</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.16905252776289</v>
+        <v>29.84348049691049</v>
       </c>
       <c r="D62" t="n">
-        <v>4.886910009915835</v>
+        <v>4.57870696039505</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.89282515525432</v>
+        <v>28.36003291455448</v>
       </c>
       <c r="D63" t="n">
-        <v>4.692755159541333</v>
+        <v>4.234288026569466</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.47747450838283</v>
+        <v>28.19110828227668</v>
       </c>
       <c r="D64" t="n">
-        <v>4.936145894236179</v>
+        <v>4.38447439091806</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.70902952461763</v>
+        <v>27.18436046911037</v>
       </c>
       <c r="D65" t="n">
-        <v>4.527128258084471</v>
+        <v>4.099707554597737</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.18190447584083</v>
+        <v>26.31538475970184</v>
       </c>
       <c r="D66" t="n">
-        <v>4.901158635786205</v>
+        <v>4.6575037346981</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.34900162528823</v>
+        <v>24.01240851787107</v>
       </c>
       <c r="D67" t="n">
-        <v>4.542102471889478</v>
+        <v>4.723704039129283</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.93195869005985</v>
+        <v>24.23149926326023</v>
       </c>
       <c r="D68" t="n">
-        <v>4.323672536501397</v>
+        <v>4.857369498182456</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.4700364324111</v>
+        <v>23.25898117408142</v>
       </c>
       <c r="D69" t="n">
-        <v>4.671605896632951</v>
+        <v>4.411259425386623</v>
       </c>
     </row>
   </sheetData>
